--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_9_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3569930.745866427</v>
+        <v>3567736.193924685</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>552067.7542869423</v>
+        <v>552067.7542869425</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>71.01467844038824</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>4.317010414468148</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>39.56167626407046</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.13733751482897</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +801,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,73 +893,73 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>190.1066023865956</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.47627913313511</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R5" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>161.1684200396997</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -990,13 +990,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>178.184672326904</v>
       </c>
     </row>
     <row r="7">
@@ -1069,46 +1069,46 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>214.0077506398264</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>11.62493210760333</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.3111039422953</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,46 +1300,46 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C11" t="n">
         <v>310.138540825715</v>
@@ -1376,19 +1376,19 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E11" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F11" t="n">
         <v>351.7416947964189</v>
       </c>
       <c r="G11" t="n">
-        <v>356.1895326467173</v>
+        <v>356.1895326467169</v>
       </c>
       <c r="H11" t="n">
         <v>243.5920134302685</v>
       </c>
       <c r="I11" t="n">
-        <v>1.946772753828448</v>
+        <v>1.946772753828498</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.2175848677369</v>
+        <v>63.21758486773695</v>
       </c>
       <c r="T11" t="n">
         <v>150.5440655703582</v>
@@ -1427,16 +1427,16 @@
         <v>195.8929936486939</v>
       </c>
       <c r="V11" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W11" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X11" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y11" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C13" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48112207291979</v>
+        <v>93.48112207291982</v>
       </c>
       <c r="E13" t="n">
-        <v>91.2996117012766</v>
+        <v>91.29961170127663</v>
       </c>
       <c r="F13" t="n">
-        <v>90.28669707763983</v>
+        <v>90.28669707763871</v>
       </c>
       <c r="G13" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H13" t="n">
-        <v>91.22453245914545</v>
+        <v>91.22453245914548</v>
       </c>
       <c r="I13" t="n">
-        <v>46.64301523684389</v>
+        <v>46.64301523684393</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.90898122589978</v>
+        <v>41.90898122589983</v>
       </c>
       <c r="S13" t="n">
         <v>137.7784534204589</v>
@@ -1582,19 +1582,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U13" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V13" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W13" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X13" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y13" t="n">
-        <v>163.4503024068022</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C14" t="n">
         <v>310.138540825715</v>
@@ -1613,7 +1613,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E14" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F14" t="n">
         <v>351.7416947964189</v>
@@ -1625,7 +1625,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I14" t="n">
-        <v>1.946772753828448</v>
+        <v>1.946772753828505</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.21758486773691</v>
+        <v>63.21758486773695</v>
       </c>
       <c r="T14" t="n">
         <v>150.5440655703582</v>
@@ -1664,16 +1664,16 @@
         <v>195.8929936486939</v>
       </c>
       <c r="V14" t="n">
-        <v>272.6179075248423</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W14" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X14" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y14" t="n">
-        <v>331.103587710761</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>124.6976292366447</v>
+        <v>124.6976292366448</v>
       </c>
       <c r="C16" t="n">
         <v>112.1124701533353</v>
       </c>
       <c r="D16" t="n">
-        <v>93.48112207291979</v>
+        <v>93.48112207291982</v>
       </c>
       <c r="E16" t="n">
-        <v>91.2996117012766</v>
+        <v>91.29961170127694</v>
       </c>
       <c r="F16" t="n">
-        <v>90.28669707763868</v>
+        <v>90.28669707763871</v>
       </c>
       <c r="G16" t="n">
         <v>111.0718515201906</v>
       </c>
       <c r="H16" t="n">
-        <v>91.22453245914654</v>
+        <v>91.22453245914548</v>
       </c>
       <c r="I16" t="n">
-        <v>46.64301523684389</v>
+        <v>46.64301523684393</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.90898122589978</v>
+        <v>41.90898122589982</v>
       </c>
       <c r="S16" t="n">
         <v>137.7784534204589</v>
@@ -1819,19 +1819,19 @@
         <v>165.1853735766385</v>
       </c>
       <c r="U16" t="n">
-        <v>231.0873269443087</v>
+        <v>231.0873269443088</v>
       </c>
       <c r="V16" t="n">
-        <v>197.0032923785354</v>
+        <v>197.0032923785355</v>
       </c>
       <c r="W16" t="n">
-        <v>231.3886473912984</v>
+        <v>231.3886473912985</v>
       </c>
       <c r="X16" t="n">
         <v>170.5753044437446</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.4503024068022</v>
+        <v>163.4503024068023</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C17" t="n">
         <v>310.138540825715</v>
@@ -1850,7 +1850,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E17" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F17" t="n">
         <v>351.7416947964189</v>
@@ -1862,7 +1862,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I17" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828498</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.21758486773693</v>
+        <v>63.21758486773703</v>
       </c>
       <c r="T17" t="n">
         <v>150.5440655703582</v>
@@ -1904,7 +1904,7 @@
         <v>272.6179075248424</v>
       </c>
       <c r="W17" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X17" t="n">
         <v>314.5967497331765</v>
@@ -2008,7 +2008,7 @@
         <v>93.48112207291982</v>
       </c>
       <c r="E19" t="n">
-        <v>91.29961170127663</v>
+        <v>91.29961170127694</v>
       </c>
       <c r="F19" t="n">
         <v>90.28669707763871</v>
@@ -2020,7 +2020,7 @@
         <v>91.22453245914548</v>
       </c>
       <c r="I19" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684393</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589982</v>
       </c>
       <c r="S19" t="n">
         <v>137.7784534204589</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C20" t="n">
         <v>310.138540825715</v>
@@ -2087,7 +2087,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E20" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F20" t="n">
         <v>351.7416947964189</v>
@@ -2099,7 +2099,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I20" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828498</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.21758486773693</v>
+        <v>63.21758486773695</v>
       </c>
       <c r="T20" t="n">
         <v>150.5440655703582</v>
@@ -2138,16 +2138,16 @@
         <v>195.8929936486939</v>
       </c>
       <c r="V20" t="n">
-        <v>272.617907524842</v>
+        <v>272.6179075248424</v>
       </c>
       <c r="W20" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X20" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y20" t="n">
-        <v>331.1035877107611</v>
+        <v>331.1035877107606</v>
       </c>
     </row>
     <row r="21">
@@ -2254,10 +2254,10 @@
         <v>111.0718515201906</v>
       </c>
       <c r="H22" t="n">
-        <v>91.22453245914548</v>
+        <v>91.22453245914581</v>
       </c>
       <c r="I22" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684393</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589982</v>
       </c>
       <c r="S22" t="n">
-        <v>137.7784534204592</v>
+        <v>137.7784534204589</v>
       </c>
       <c r="T22" t="n">
         <v>165.1853735766385</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>327.599490718188</v>
+        <v>327.5994907181881</v>
       </c>
       <c r="C23" t="n">
         <v>310.138540825715</v>
@@ -2324,7 +2324,7 @@
         <v>299.5486906753904</v>
       </c>
       <c r="E23" t="n">
-        <v>326.7960191269692</v>
+        <v>326.7960191269693</v>
       </c>
       <c r="F23" t="n">
         <v>351.7416947964189</v>
@@ -2336,7 +2336,7 @@
         <v>243.5920134302685</v>
       </c>
       <c r="I23" t="n">
-        <v>1.946772753828469</v>
+        <v>1.946772753828498</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.21758486773693</v>
+        <v>63.21758486773703</v>
       </c>
       <c r="T23" t="n">
         <v>150.5440655703582</v>
@@ -2378,13 +2378,13 @@
         <v>272.6179075248424</v>
       </c>
       <c r="W23" t="n">
-        <v>294.1066177721204</v>
+        <v>294.1066177721205</v>
       </c>
       <c r="X23" t="n">
         <v>314.5967497331765</v>
       </c>
       <c r="Y23" t="n">
-        <v>331.1035877107606</v>
+        <v>331.1035877107611</v>
       </c>
     </row>
     <row r="24">
@@ -2476,7 +2476,7 @@
         <v>124.6976292366448</v>
       </c>
       <c r="C25" t="n">
-        <v>112.1124701533356</v>
+        <v>112.1124701533353</v>
       </c>
       <c r="D25" t="n">
         <v>93.48112207291982</v>
@@ -2494,7 +2494,7 @@
         <v>91.22453245914548</v>
       </c>
       <c r="I25" t="n">
-        <v>46.64301523684392</v>
+        <v>46.64301523684425</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.90898122589981</v>
+        <v>41.90898122589982</v>
       </c>
       <c r="S25" t="n">
         <v>137.7784534204589</v>
@@ -2573,7 +2573,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I26" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912104</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.6516405041617</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S28" t="n">
-        <v>192.9128043657514</v>
+        <v>138.8203416599661</v>
       </c>
       <c r="T28" t="n">
         <v>220.3197245219311</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I29" t="n">
-        <v>57.08112369912101</v>
+        <v>57.0811236991215</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>164.4921906463096</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>106.0293563559005</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>97.04333217119235</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S31" t="n">
         <v>192.9128043657514</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3047,7 +3047,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I32" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912104</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3083,7 +3083,7 @@
         <v>205.6784165156507</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0273445939865</v>
+        <v>251.027344593987</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>97.04333217119235</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S34" t="n">
         <v>192.9128043657514</v>
@@ -3244,13 +3244,13 @@
         <v>286.2216778896013</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>29.71954647957871</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>151.9070315630004</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I35" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912104</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>113.1543583928427</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S37" t="n">
         <v>192.9128043657514</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>23.24070834515548</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722621</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I38" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912119</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,16 +3658,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>116.8366313407688</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>192.9128043657514</v>
       </c>
       <c r="T40" t="n">
-        <v>220.3197245219311</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>90.8777328826621</v>
+        <v>286.2216778896013</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3758,7 +3758,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I41" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912104</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>106.0293563559003</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S43" t="n">
         <v>192.9128043657514</v>
@@ -3955,7 +3955,7 @@
         <v>286.2216778896013</v>
       </c>
       <c r="V43" t="n">
-        <v>56.79369831688886</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>298.726364375561</v>
       </c>
       <c r="I44" t="n">
-        <v>57.08112369912101</v>
+        <v>57.08112369912104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S46" t="n">
         <v>192.9128043657514</v>
@@ -4189,7 +4189,7 @@
         <v>220.3197245219311</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2216778896013</v>
+        <v>212.4190540635642</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>203.0726885270929</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="W2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="X2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y2" t="n">
-        <v>559.1338160830064</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>683.4224531698892</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C3" t="n">
-        <v>508.9694238887622</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D3" t="n">
-        <v>508.9694238887622</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>59.24243226583945</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,10 +4419,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>851.6377901899573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>851.6377901899573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>851.6377901899573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>851.6377901899573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>851.6377901899573</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>851.6377901899573</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y3" t="n">
-        <v>851.6377901899573</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="4">
@@ -4522,7 +4522,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>559.1338160830064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y5" t="n">
-        <v>315.6850394389064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>694.6722890434539</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C6" t="n">
-        <v>531.8759051649694</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D6" t="n">
-        <v>382.9414955037181</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>346.7339351357363</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C8" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D8" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E8" t="n">
-        <v>467.067986854209</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F8" t="n">
-        <v>460.1224861050055</v>
+        <v>259.0827180527828</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>243.6254074314342</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>243.6254074314342</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>31.02349877445852</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>914.2479596093278</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V9" t="n">
-        <v>679.0958513775852</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W9" t="n">
-        <v>435.6470747334852</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X9" t="n">
-        <v>227.7955745279523</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4987,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1988.195056901903</v>
+        <v>1988.195056901902</v>
       </c>
       <c r="C11" t="n">
-        <v>1674.923803542595</v>
+        <v>1674.923803542594</v>
       </c>
       <c r="D11" t="n">
-        <v>1372.349368516948</v>
+        <v>1372.349368516947</v>
       </c>
       <c r="E11" t="n">
-        <v>1042.252379499807</v>
+        <v>1042.252379499806</v>
       </c>
       <c r="F11" t="n">
-        <v>686.9577382913033</v>
+        <v>686.9577382913022</v>
       </c>
       <c r="G11" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H11" t="n">
-        <v>81.1177927589936</v>
+        <v>81.11779275899366</v>
       </c>
       <c r="I11" t="n">
         <v>79.15135563391436</v>
       </c>
       <c r="J11" t="n">
-        <v>401.6448097991183</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K11" t="n">
         <v>1005.723704036542</v>
       </c>
       <c r="L11" t="n">
-        <v>1393.929013785102</v>
+        <v>1393.929013785101</v>
       </c>
       <c r="M11" t="n">
-        <v>1857.551657479773</v>
+        <v>1857.551657479772</v>
       </c>
       <c r="N11" t="n">
         <v>2333.290008630807</v>
       </c>
       <c r="O11" t="n">
-        <v>2786.914356456115</v>
+        <v>2851.973612130368</v>
       </c>
       <c r="P11" t="n">
-        <v>3443.016937783847</v>
+        <v>3508.0761934581</v>
       </c>
       <c r="Q11" t="n">
-        <v>3858.500892536427</v>
+        <v>3923.56014821068</v>
       </c>
       <c r="R11" t="n">
         <v>3957.567781695718</v>
@@ -5072,19 +5072,19 @@
         <v>3741.646922667339</v>
       </c>
       <c r="U11" t="n">
-        <v>3543.775211911083</v>
+        <v>3543.775211911082</v>
       </c>
       <c r="V11" t="n">
-        <v>3268.403588148616</v>
+        <v>3268.403588148615</v>
       </c>
       <c r="W11" t="n">
-        <v>2971.326196459605</v>
+        <v>2971.326196459604</v>
       </c>
       <c r="X11" t="n">
-        <v>2653.551701779629</v>
+        <v>2653.551701779628</v>
       </c>
       <c r="Y11" t="n">
-        <v>2319.103633384921</v>
+        <v>2319.10363338492</v>
       </c>
     </row>
     <row r="12">
@@ -5118,28 +5118,28 @@
         <v>79.15135563391436</v>
       </c>
       <c r="J12" t="n">
-        <v>277.5328679503709</v>
+        <v>152.7027429633661</v>
       </c>
       <c r="K12" t="n">
-        <v>481.3987287139394</v>
+        <v>481.6552854608039</v>
       </c>
       <c r="L12" t="n">
-        <v>801.8440782755487</v>
+        <v>802.1006350224131</v>
       </c>
       <c r="M12" t="n">
-        <v>1195.145554955525</v>
+        <v>1195.40211170239</v>
       </c>
       <c r="N12" t="n">
-        <v>1613.265196333899</v>
+        <v>1613.521753080764</v>
       </c>
       <c r="O12" t="n">
-        <v>1973.54318669403</v>
+        <v>1973.799743440894</v>
       </c>
       <c r="P12" t="n">
-        <v>2243.364970383455</v>
+        <v>2243.621527130319</v>
       </c>
       <c r="Q12" t="n">
-        <v>2550.348623557724</v>
+        <v>2582.047562384652</v>
       </c>
       <c r="R12" t="n">
         <v>2582.047562384652</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>721.6961033322491</v>
+        <v>721.6961033322477</v>
       </c>
       <c r="C13" t="n">
-        <v>608.4511839854458</v>
+        <v>608.4511839854445</v>
       </c>
       <c r="D13" t="n">
-        <v>514.0258081542137</v>
+        <v>514.0258081542123</v>
       </c>
       <c r="E13" t="n">
-        <v>421.8039781529242</v>
+        <v>421.8039781529228</v>
       </c>
       <c r="F13" t="n">
-        <v>330.6052942361163</v>
+        <v>330.605294236116</v>
       </c>
       <c r="G13" t="n">
-        <v>218.4115048217824</v>
+        <v>218.411504821782</v>
       </c>
       <c r="H13" t="n">
         <v>126.2655124388072</v>
@@ -5200,49 +5200,49 @@
         <v>166.2306638242915</v>
       </c>
       <c r="K13" t="n">
-        <v>404.0519125825646</v>
+        <v>404.0519125825645</v>
       </c>
       <c r="L13" t="n">
-        <v>748.6432167956289</v>
+        <v>748.6432167956286</v>
       </c>
       <c r="M13" t="n">
-        <v>1119.388434113901</v>
+        <v>1119.3884341139</v>
       </c>
       <c r="N13" t="n">
         <v>1488.050637160306</v>
       </c>
       <c r="O13" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P13" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q13" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R13" t="n">
-        <v>2157.21764858319</v>
+        <v>2157.217648583189</v>
       </c>
       <c r="S13" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T13" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U13" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V13" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916581</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.052907460725</v>
+        <v>1185.052907460724</v>
       </c>
       <c r="X13" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y13" t="n">
-        <v>847.6533045813852</v>
+        <v>847.6533045813838</v>
       </c>
     </row>
     <row r="14">
@@ -5261,43 +5261,43 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E14" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F14" t="n">
-        <v>686.9577382913026</v>
+        <v>686.9577382913027</v>
       </c>
       <c r="G14" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H14" t="n">
-        <v>81.11779275899359</v>
+        <v>81.11779275899366</v>
       </c>
       <c r="I14" t="n">
-        <v>79.15135563391435</v>
+        <v>79.15135563391436</v>
       </c>
       <c r="J14" t="n">
-        <v>281.1446782539434</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K14" t="n">
-        <v>885.2235724913676</v>
+        <v>974.1236000649121</v>
       </c>
       <c r="L14" t="n">
-        <v>1686.913484644873</v>
+        <v>1362.328909813471</v>
       </c>
       <c r="M14" t="n">
-        <v>2150.536128339544</v>
+        <v>1825.951553508142</v>
       </c>
       <c r="N14" t="n">
-        <v>2626.274479490578</v>
+        <v>2734.663359827041</v>
       </c>
       <c r="O14" t="n">
-        <v>3062.165452883673</v>
+        <v>3170.554333220135</v>
       </c>
       <c r="P14" t="n">
-        <v>3718.268034211405</v>
+        <v>3508.0761934581</v>
       </c>
       <c r="Q14" t="n">
-        <v>3923.560148210679</v>
+        <v>3923.56014821068</v>
       </c>
       <c r="R14" t="n">
         <v>3957.567781695718</v>
@@ -5309,19 +5309,19 @@
         <v>3741.646922667339</v>
       </c>
       <c r="U14" t="n">
-        <v>3543.775211911082</v>
+        <v>3543.775211911083</v>
       </c>
       <c r="V14" t="n">
-        <v>3268.403588148615</v>
+        <v>3268.403588148616</v>
       </c>
       <c r="W14" t="n">
-        <v>2971.326196459604</v>
+        <v>2971.326196459605</v>
       </c>
       <c r="X14" t="n">
-        <v>2653.551701779628</v>
+        <v>2653.551701779629</v>
       </c>
       <c r="Y14" t="n">
-        <v>2319.10363338492</v>
+        <v>2319.103633384921</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5340,43 @@
         <v>630.3673049675383</v>
       </c>
       <c r="E15" t="n">
-        <v>471.1298499620827</v>
+        <v>471.1298499620829</v>
       </c>
       <c r="F15" t="n">
-        <v>324.5952919889677</v>
+        <v>324.5952919889678</v>
       </c>
       <c r="G15" t="n">
         <v>188.0148448853821</v>
       </c>
       <c r="H15" t="n">
-        <v>95.41383669201829</v>
+        <v>95.41383669201831</v>
       </c>
       <c r="I15" t="n">
-        <v>79.15135563391435</v>
+        <v>79.15135563391436</v>
       </c>
       <c r="J15" t="n">
-        <v>277.5328679503709</v>
+        <v>152.7027429633661</v>
       </c>
       <c r="K15" t="n">
-        <v>481.3987287139392</v>
+        <v>356.5686037269345</v>
       </c>
       <c r="L15" t="n">
-        <v>801.8440782755486</v>
+        <v>1010.077149880904</v>
       </c>
       <c r="M15" t="n">
-        <v>1195.145554955525</v>
+        <v>1403.37862656088</v>
       </c>
       <c r="N15" t="n">
-        <v>1613.265196333899</v>
+        <v>1821.498267939254</v>
       </c>
       <c r="O15" t="n">
-        <v>1973.54318669403</v>
+        <v>2181.776258299385</v>
       </c>
       <c r="P15" t="n">
-        <v>2243.364970383455</v>
+        <v>2451.59804198881</v>
       </c>
       <c r="Q15" t="n">
-        <v>2550.348623557724</v>
+        <v>2582.047562384652</v>
       </c>
       <c r="R15" t="n">
         <v>2582.047562384652</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>721.6961033322491</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C16" t="n">
-        <v>608.4511839854458</v>
+        <v>608.4511839854451</v>
       </c>
       <c r="D16" t="n">
-        <v>514.0258081542137</v>
+        <v>514.025808154213</v>
       </c>
       <c r="E16" t="n">
-        <v>421.8039781529242</v>
+        <v>421.8039781529232</v>
       </c>
       <c r="F16" t="n">
-        <v>330.6052942361174</v>
+        <v>330.6052942361164</v>
       </c>
       <c r="G16" t="n">
-        <v>218.4115048217835</v>
+        <v>218.4115048217824</v>
       </c>
       <c r="H16" t="n">
         <v>126.2655124388072</v>
       </c>
       <c r="I16" t="n">
-        <v>79.15135563391435</v>
+        <v>79.15135563391436</v>
       </c>
       <c r="J16" t="n">
         <v>166.2306638242915</v>
       </c>
       <c r="K16" t="n">
-        <v>404.0519125825646</v>
+        <v>404.0519125825645</v>
       </c>
       <c r="L16" t="n">
         <v>748.6432167956289</v>
       </c>
       <c r="M16" t="n">
-        <v>1119.388434113901</v>
+        <v>1119.3884341139</v>
       </c>
       <c r="N16" t="n">
         <v>1488.050637160306</v>
       </c>
       <c r="O16" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P16" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q16" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R16" t="n">
         <v>2157.21764858319</v>
       </c>
       <c r="S16" t="n">
-        <v>2018.04749361303</v>
+        <v>2018.047493613029</v>
       </c>
       <c r="T16" t="n">
-        <v>1851.193580909355</v>
+        <v>1851.193580909354</v>
       </c>
       <c r="U16" t="n">
-        <v>1617.772038541366</v>
+        <v>1617.772038541365</v>
       </c>
       <c r="V16" t="n">
-        <v>1418.778813916583</v>
+        <v>1418.778813916582</v>
       </c>
       <c r="W16" t="n">
         <v>1185.052907460725</v>
       </c>
       <c r="X16" t="n">
-        <v>1012.754620143812</v>
+        <v>1012.754620143811</v>
       </c>
       <c r="Y16" t="n">
-        <v>847.6533045813852</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="17">
@@ -5498,43 +5498,43 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E17" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F17" t="n">
-        <v>686.9577382913021</v>
+        <v>686.9577382913027</v>
       </c>
       <c r="G17" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H17" t="n">
-        <v>81.11779275899363</v>
+        <v>81.11779275899366</v>
       </c>
       <c r="I17" t="n">
         <v>79.15135563391436</v>
       </c>
       <c r="J17" t="n">
-        <v>360.9667258709816</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K17" t="n">
-        <v>965.0456201084057</v>
+        <v>1005.723704036542</v>
       </c>
       <c r="L17" t="n">
-        <v>1353.250929856965</v>
+        <v>1393.929013785101</v>
       </c>
       <c r="M17" t="n">
-        <v>1816.873573551636</v>
+        <v>2302.570055637676</v>
       </c>
       <c r="N17" t="n">
-        <v>2292.61192470267</v>
+        <v>2778.308406788711</v>
       </c>
       <c r="O17" t="n">
-        <v>3105.495077545882</v>
+        <v>3380.746173973441</v>
       </c>
       <c r="P17" t="n">
-        <v>3443.016937783847</v>
+        <v>3718.268034211406</v>
       </c>
       <c r="Q17" t="n">
-        <v>3858.500892536427</v>
+        <v>3923.56014821068</v>
       </c>
       <c r="R17" t="n">
         <v>3957.567781695718</v>
@@ -5546,19 +5546,19 @@
         <v>3741.646922667339</v>
       </c>
       <c r="U17" t="n">
-        <v>3543.775211911082</v>
+        <v>3543.775211911083</v>
       </c>
       <c r="V17" t="n">
-        <v>3268.403588148615</v>
+        <v>3268.403588148616</v>
       </c>
       <c r="W17" t="n">
-        <v>2971.326196459604</v>
+        <v>2971.326196459605</v>
       </c>
       <c r="X17" t="n">
-        <v>2653.551701779628</v>
+        <v>2653.551701779629</v>
       </c>
       <c r="Y17" t="n">
-        <v>2319.10363338492</v>
+        <v>2319.103633384921</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5595,25 @@
         <v>277.5328679503709</v>
       </c>
       <c r="K18" t="n">
-        <v>481.3987287139394</v>
+        <v>689.6318003192946</v>
       </c>
       <c r="L18" t="n">
-        <v>801.8440782755487</v>
+        <v>1010.077149880904</v>
       </c>
       <c r="M18" t="n">
-        <v>1195.145554955525</v>
+        <v>1403.37862656088</v>
       </c>
       <c r="N18" t="n">
-        <v>1613.265196333899</v>
+        <v>1821.498267939254</v>
       </c>
       <c r="O18" t="n">
-        <v>1973.54318669403</v>
+        <v>2181.776258299385</v>
       </c>
       <c r="P18" t="n">
-        <v>2243.364970383455</v>
+        <v>2451.59804198881</v>
       </c>
       <c r="Q18" t="n">
-        <v>2550.348623557724</v>
+        <v>2582.047562384652</v>
       </c>
       <c r="R18" t="n">
         <v>2582.047562384652</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.6961033322482</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C19" t="n">
-        <v>608.4511839854449</v>
+        <v>608.4511839854451</v>
       </c>
       <c r="D19" t="n">
-        <v>514.0258081542128</v>
+        <v>514.025808154213</v>
       </c>
       <c r="E19" t="n">
         <v>421.8039781529232</v>
@@ -5662,7 +5662,7 @@
         <v>330.6052942361164</v>
       </c>
       <c r="G19" t="n">
-        <v>218.4115048217825</v>
+        <v>218.4115048217824</v>
       </c>
       <c r="H19" t="n">
         <v>126.2655124388072</v>
@@ -5677,7 +5677,7 @@
         <v>404.0519125825645</v>
       </c>
       <c r="L19" t="n">
-        <v>748.6432167956287</v>
+        <v>748.6432167956289</v>
       </c>
       <c r="M19" t="n">
         <v>1119.3884341139</v>
@@ -5686,13 +5686,13 @@
         <v>1488.050637160306</v>
       </c>
       <c r="O19" t="n">
-        <v>1816.720321418912</v>
+        <v>1816.720321418911</v>
       </c>
       <c r="P19" t="n">
         <v>2082.311148584326</v>
       </c>
       <c r="Q19" t="n">
-        <v>2199.549952851776</v>
+        <v>2199.549952851775</v>
       </c>
       <c r="R19" t="n">
         <v>2157.21764858319</v>
@@ -5716,7 +5716,7 @@
         <v>1012.754620143811</v>
       </c>
       <c r="Y19" t="n">
-        <v>847.6533045813843</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="20">
@@ -5735,43 +5735,43 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E20" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F20" t="n">
-        <v>686.9577382913026</v>
+        <v>686.9577382913027</v>
       </c>
       <c r="G20" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H20" t="n">
-        <v>81.11779275899363</v>
+        <v>81.11779275899366</v>
       </c>
       <c r="I20" t="n">
         <v>79.15135563391436</v>
       </c>
       <c r="J20" t="n">
-        <v>234.2391607787653</v>
+        <v>234.2391607787652</v>
       </c>
       <c r="K20" t="n">
-        <v>517.4140965707363</v>
+        <v>838.3180550161892</v>
       </c>
       <c r="L20" t="n">
-        <v>905.6194063192956</v>
+        <v>1309.921305194756</v>
       </c>
       <c r="M20" t="n">
-        <v>1814.260448171871</v>
+        <v>1773.543948889427</v>
       </c>
       <c r="N20" t="n">
-        <v>2722.97225449077</v>
+        <v>2249.282300040461</v>
       </c>
       <c r="O20" t="n">
-        <v>3158.863227883864</v>
+        <v>3062.165452883673</v>
       </c>
       <c r="P20" t="n">
-        <v>3653.208778537153</v>
+        <v>3718.268034211406</v>
       </c>
       <c r="Q20" t="n">
-        <v>3858.500892536427</v>
+        <v>3923.56014821068</v>
       </c>
       <c r="R20" t="n">
         <v>3957.567781695718</v>
@@ -5786,13 +5786,13 @@
         <v>3543.775211911082</v>
       </c>
       <c r="V20" t="n">
-        <v>3268.403588148616</v>
+        <v>3268.403588148615</v>
       </c>
       <c r="W20" t="n">
-        <v>2971.326196459605</v>
+        <v>2971.326196459604</v>
       </c>
       <c r="X20" t="n">
-        <v>2653.551701779629</v>
+        <v>2653.551701779628</v>
       </c>
       <c r="Y20" t="n">
         <v>2319.103633384921</v>
@@ -5829,25 +5829,25 @@
         <v>79.15135563391436</v>
       </c>
       <c r="J21" t="n">
-        <v>277.5328679503709</v>
+        <v>152.7027429633661</v>
       </c>
       <c r="K21" t="n">
-        <v>481.6552854608036</v>
+        <v>356.5686037269345</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1006350224129</v>
+        <v>677.0139532885437</v>
       </c>
       <c r="M21" t="n">
-        <v>1195.402111702389</v>
+        <v>1403.37862656088</v>
       </c>
       <c r="N21" t="n">
-        <v>1613.521753080763</v>
+        <v>1821.498267939254</v>
       </c>
       <c r="O21" t="n">
-        <v>1973.799743440894</v>
+        <v>2181.776258299385</v>
       </c>
       <c r="P21" t="n">
-        <v>2243.621527130319</v>
+        <v>2451.59804198881</v>
       </c>
       <c r="Q21" t="n">
         <v>2582.047562384652</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>721.6961033322482</v>
+        <v>721.6961033322484</v>
       </c>
       <c r="C22" t="n">
-        <v>608.4511839854448</v>
+        <v>608.4511839854451</v>
       </c>
       <c r="D22" t="n">
-        <v>514.0258081542127</v>
+        <v>514.025808154213</v>
       </c>
       <c r="E22" t="n">
-        <v>421.8039781529232</v>
+        <v>421.8039781529235</v>
       </c>
       <c r="F22" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361167</v>
       </c>
       <c r="G22" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217828</v>
       </c>
       <c r="H22" t="n">
         <v>126.2655124388072</v>
@@ -5953,7 +5953,7 @@
         <v>1012.754620143811</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.6533045813843</v>
+        <v>847.6533045813845</v>
       </c>
     </row>
     <row r="23">
@@ -5972,40 +5972,40 @@
         <v>1372.349368516947</v>
       </c>
       <c r="E23" t="n">
-        <v>1042.252379499806</v>
+        <v>1042.252379499807</v>
       </c>
       <c r="F23" t="n">
-        <v>686.9577382913026</v>
+        <v>686.9577382913027</v>
       </c>
       <c r="G23" t="n">
-        <v>327.1703315774466</v>
+        <v>327.1703315774467</v>
       </c>
       <c r="H23" t="n">
-        <v>81.11779275899363</v>
+        <v>81.11779275899366</v>
       </c>
       <c r="I23" t="n">
         <v>79.15135563391436</v>
       </c>
       <c r="J23" t="n">
-        <v>295.2637445188806</v>
+        <v>401.6448097991182</v>
       </c>
       <c r="K23" t="n">
-        <v>578.4386803108516</v>
+        <v>684.8197455910891</v>
       </c>
       <c r="L23" t="n">
-        <v>966.6439900594108</v>
+        <v>1073.025055339648</v>
       </c>
       <c r="M23" t="n">
-        <v>1875.285031911986</v>
+        <v>1594.091959137078</v>
       </c>
       <c r="N23" t="n">
-        <v>2351.02338306302</v>
+        <v>2502.803765455976</v>
       </c>
       <c r="O23" t="n">
-        <v>2786.914356456115</v>
+        <v>3315.686918299188</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.016937783847</v>
+        <v>3653.208778537153</v>
       </c>
       <c r="Q23" t="n">
         <v>3858.500892536427</v>
@@ -6020,16 +6020,16 @@
         <v>3741.646922667339</v>
       </c>
       <c r="U23" t="n">
-        <v>3543.775211911082</v>
+        <v>3543.775211911083</v>
       </c>
       <c r="V23" t="n">
-        <v>3268.403588148615</v>
+        <v>3268.403588148616</v>
       </c>
       <c r="W23" t="n">
-        <v>2971.326196459604</v>
+        <v>2971.326196459605</v>
       </c>
       <c r="X23" t="n">
-        <v>2653.551701779628</v>
+        <v>2653.551701779629</v>
       </c>
       <c r="Y23" t="n">
         <v>2319.103633384921</v>
@@ -6066,28 +6066,28 @@
         <v>79.15135563391436</v>
       </c>
       <c r="J24" t="n">
-        <v>277.5328679503709</v>
+        <v>152.7027429633661</v>
       </c>
       <c r="K24" t="n">
-        <v>481.3987287139394</v>
+        <v>356.5686037269345</v>
       </c>
       <c r="L24" t="n">
-        <v>801.8440782755487</v>
+        <v>677.0139532885437</v>
       </c>
       <c r="M24" t="n">
-        <v>1195.145554955525</v>
+        <v>1070.31542996852</v>
       </c>
       <c r="N24" t="n">
-        <v>1613.265196333899</v>
+        <v>1613.521753080764</v>
       </c>
       <c r="O24" t="n">
-        <v>1973.54318669403</v>
+        <v>1973.799743440894</v>
       </c>
       <c r="P24" t="n">
-        <v>2243.364970383455</v>
+        <v>2243.621527130319</v>
       </c>
       <c r="Q24" t="n">
-        <v>2550.348623557724</v>
+        <v>2582.047562384652</v>
       </c>
       <c r="R24" t="n">
         <v>2582.047562384652</v>
@@ -6124,22 +6124,22 @@
         <v>721.6961033322484</v>
       </c>
       <c r="C25" t="n">
-        <v>608.4511839854448</v>
+        <v>608.4511839854451</v>
       </c>
       <c r="D25" t="n">
-        <v>514.0258081542127</v>
+        <v>514.025808154213</v>
       </c>
       <c r="E25" t="n">
-        <v>421.8039781529232</v>
+        <v>421.8039781529235</v>
       </c>
       <c r="F25" t="n">
-        <v>330.6052942361164</v>
+        <v>330.6052942361167</v>
       </c>
       <c r="G25" t="n">
-        <v>218.4115048217824</v>
+        <v>218.4115048217828</v>
       </c>
       <c r="H25" t="n">
-        <v>126.2655124388072</v>
+        <v>126.2655124388075</v>
       </c>
       <c r="I25" t="n">
         <v>79.15135563391436</v>
@@ -6224,28 +6224,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J26" t="n">
-        <v>400.4514279302351</v>
+        <v>251.2875067729806</v>
       </c>
       <c r="K26" t="n">
-        <v>1004.530322167659</v>
+        <v>534.4624425649515</v>
       </c>
       <c r="L26" t="n">
-        <v>1392.735631916219</v>
+        <v>1009.095655152198</v>
       </c>
       <c r="M26" t="n">
-        <v>2301.376673768794</v>
+        <v>1917.736697004773</v>
       </c>
       <c r="N26" t="n">
-        <v>3210.088480087692</v>
+        <v>2826.448503323672</v>
       </c>
       <c r="O26" t="n">
-        <v>4022.971632930904</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P26" t="n">
-        <v>4360.493493168869</v>
+        <v>4295.434237494616</v>
       </c>
       <c r="Q26" t="n">
-        <v>4775.977447921449</v>
+        <v>4710.918192247196</v>
       </c>
       <c r="R26" t="n">
         <v>4809.985081406488</v>
@@ -6303,28 +6303,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J27" t="n">
-        <v>294.5812139445863</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K27" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L27" t="n">
-        <v>818.892424269764</v>
+        <v>694.0622992827591</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.193900949741</v>
+        <v>1087.363775962736</v>
       </c>
       <c r="N27" t="n">
-        <v>1630.313542328114</v>
+        <v>1505.48341734111</v>
       </c>
       <c r="O27" t="n">
-        <v>1990.591532688245</v>
+        <v>1865.76140770124</v>
       </c>
       <c r="P27" t="n">
-        <v>2260.41331637767</v>
+        <v>2260.669873124535</v>
       </c>
       <c r="Q27" t="n">
-        <v>2567.39696955194</v>
+        <v>2599.095908378868</v>
       </c>
       <c r="R27" t="n">
         <v>2599.095908378868</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>301.3236294332742</v>
+        <v>265.1358845560367</v>
       </c>
       <c r="C28" t="n">
-        <v>301.3236294332742</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="D28" t="n">
-        <v>301.3236294332742</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="E28" t="n">
-        <v>301.3236294332742</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="F28" t="n">
-        <v>154.4336819353638</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="G28" t="n">
         <v>96.19970162812976</v>
@@ -6382,16 +6382,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J28" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K28" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L28" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M28" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N28" t="n">
         <v>1232.183945975323</v>
@@ -6406,28 +6406,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R28" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S28" t="n">
-        <v>1585.07282080801</v>
+        <v>1541.688104176285</v>
       </c>
       <c r="T28" t="n">
-        <v>1362.527644523231</v>
+        <v>1319.142927891507</v>
       </c>
       <c r="U28" t="n">
-        <v>1073.414838574139</v>
+        <v>1030.030121942414</v>
       </c>
       <c r="V28" t="n">
-        <v>818.7303503682521</v>
+        <v>775.3456337365274</v>
       </c>
       <c r="W28" t="n">
-        <v>529.3131803312915</v>
+        <v>485.9284636995668</v>
       </c>
       <c r="X28" t="n">
-        <v>301.3236294332742</v>
+        <v>485.9284636995668</v>
       </c>
       <c r="Y28" t="n">
-        <v>301.3236294332742</v>
+        <v>265.1358845560367</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6449,37 @@
         <v>1282.065779818437</v>
       </c>
       <c r="F29" t="n">
-        <v>871.0798750288295</v>
+        <v>871.0798750288291</v>
       </c>
       <c r="G29" t="n">
-        <v>455.60120473387</v>
+        <v>455.6012047338697</v>
       </c>
       <c r="H29" t="n">
-        <v>153.8574023343135</v>
+        <v>153.8574023343131</v>
       </c>
       <c r="I29" t="n">
         <v>96.19970162812976</v>
       </c>
       <c r="J29" t="n">
-        <v>418.6931557933336</v>
+        <v>251.2875067729806</v>
       </c>
       <c r="K29" t="n">
-        <v>736.178304841766</v>
+        <v>652.4241411565968</v>
       </c>
       <c r="L29" t="n">
-        <v>1537.868216995271</v>
+        <v>1454.114053310102</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.509258847846</v>
+        <v>1917.736697004773</v>
       </c>
       <c r="N29" t="n">
-        <v>3355.221065166746</v>
+        <v>2826.448503323672</v>
       </c>
       <c r="O29" t="n">
-        <v>4168.104218009958</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P29" t="n">
-        <v>4505.626078247922</v>
+        <v>4295.434237494616</v>
       </c>
       <c r="Q29" t="n">
         <v>4710.918192247196</v>
@@ -6491,7 +6491,7 @@
         <v>4690.437671494336</v>
       </c>
       <c r="T29" t="n">
-        <v>4482.681695215902</v>
+        <v>4482.681695215901</v>
       </c>
       <c r="U29" t="n">
         <v>4229.118720878541</v>
@@ -6540,28 +6540,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J30" t="n">
-        <v>294.5812139445863</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K30" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L30" t="n">
-        <v>818.892424269764</v>
+        <v>694.0622992827591</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.193900949741</v>
+        <v>1087.363775962736</v>
       </c>
       <c r="N30" t="n">
-        <v>1630.313542328114</v>
+        <v>1505.48341734111</v>
       </c>
       <c r="O30" t="n">
-        <v>1990.591532688245</v>
+        <v>1865.76140770124</v>
       </c>
       <c r="P30" t="n">
-        <v>2260.41331637767</v>
+        <v>2450.861332344203</v>
       </c>
       <c r="Q30" t="n">
-        <v>2567.39696955194</v>
+        <v>2599.095908378868</v>
       </c>
       <c r="R30" t="n">
         <v>2599.095908378868</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>203.3000615835849</v>
+        <v>265.1358845560367</v>
       </c>
       <c r="C31" t="n">
-        <v>203.3000615835849</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="D31" t="n">
-        <v>203.3000615835849</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="E31" t="n">
-        <v>203.3000615835849</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="F31" t="n">
-        <v>203.3000615835849</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="G31" t="n">
         <v>96.19970162812976</v>
@@ -6619,16 +6619,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K31" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L31" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M31" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N31" t="n">
         <v>1232.183945975323</v>
@@ -6646,25 +6646,25 @@
         <v>1681.910671509585</v>
       </c>
       <c r="S31" t="n">
-        <v>1487.049252958321</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T31" t="n">
         <v>1264.504076673542</v>
       </c>
       <c r="U31" t="n">
-        <v>975.3912707244497</v>
+        <v>975.3912707244494</v>
       </c>
       <c r="V31" t="n">
-        <v>720.7067825185628</v>
+        <v>720.7067825185626</v>
       </c>
       <c r="W31" t="n">
-        <v>431.2896124816022</v>
+        <v>431.289612481602</v>
       </c>
       <c r="X31" t="n">
-        <v>203.3000615835849</v>
+        <v>431.289612481602</v>
       </c>
       <c r="Y31" t="n">
-        <v>203.3000615835849</v>
+        <v>431.289612481602</v>
       </c>
     </row>
     <row r="32">
@@ -6677,19 +6677,19 @@
         <v>2395.082247963842</v>
       </c>
       <c r="C32" t="n">
-        <v>2026.11973102343</v>
+        <v>2026.119731023431</v>
       </c>
       <c r="D32" t="n">
         <v>1667.85403241668</v>
       </c>
       <c r="E32" t="n">
-        <v>1282.065779818435</v>
+        <v>1282.065779818436</v>
       </c>
       <c r="F32" t="n">
-        <v>871.0798750288279</v>
+        <v>871.0798750288284</v>
       </c>
       <c r="G32" t="n">
-        <v>455.6012047338685</v>
+        <v>455.6012047338693</v>
       </c>
       <c r="H32" t="n">
         <v>153.8574023343126</v>
@@ -6698,25 +6698,25 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J32" t="n">
-        <v>418.6931557933336</v>
+        <v>393.8036306163324</v>
       </c>
       <c r="K32" t="n">
-        <v>794.5897632021156</v>
+        <v>997.8825248537564</v>
       </c>
       <c r="L32" t="n">
-        <v>1596.279675355621</v>
+        <v>1386.087834602316</v>
       </c>
       <c r="M32" t="n">
-        <v>2504.920717208196</v>
+        <v>2294.728876454891</v>
       </c>
       <c r="N32" t="n">
-        <v>3413.632523527095</v>
+        <v>3203.440682773789</v>
       </c>
       <c r="O32" t="n">
-        <v>3849.523496920189</v>
+        <v>3639.331656166883</v>
       </c>
       <c r="P32" t="n">
-        <v>4505.626078247922</v>
+        <v>4295.434237494616</v>
       </c>
       <c r="Q32" t="n">
         <v>4710.918192247196</v>
@@ -6777,25 +6777,25 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J33" t="n">
-        <v>294.5812139445863</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K33" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L33" t="n">
-        <v>818.892424269764</v>
+        <v>1027.125495875119</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.193900949741</v>
+        <v>1420.426972555096</v>
       </c>
       <c r="N33" t="n">
-        <v>1630.313542328114</v>
+        <v>1838.54661393347</v>
       </c>
       <c r="O33" t="n">
-        <v>1990.591532688245</v>
+        <v>2198.8246042936</v>
       </c>
       <c r="P33" t="n">
-        <v>2260.669873124535</v>
+        <v>2468.646387983025</v>
       </c>
       <c r="Q33" t="n">
         <v>2599.095908378868</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.19970162812976</v>
+        <v>246.3163410404655</v>
       </c>
       <c r="C34" t="n">
-        <v>96.19970162812976</v>
+        <v>246.3163410404655</v>
       </c>
       <c r="D34" t="n">
         <v>96.19970162812976</v>
@@ -6856,16 +6856,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J34" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K34" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L34" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M34" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N34" t="n">
         <v>1232.183945975323</v>
@@ -6883,25 +6883,25 @@
         <v>1681.910671509585</v>
       </c>
       <c r="S34" t="n">
-        <v>1487.049252958321</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T34" t="n">
         <v>1264.504076673542</v>
       </c>
       <c r="U34" t="n">
-        <v>975.3912707244497</v>
+        <v>975.3912707244494</v>
       </c>
       <c r="V34" t="n">
-        <v>720.7067825185628</v>
+        <v>945.3715268056831</v>
       </c>
       <c r="W34" t="n">
-        <v>431.2896124816022</v>
+        <v>655.9543567687225</v>
       </c>
       <c r="X34" t="n">
-        <v>277.8481664583695</v>
+        <v>427.9648058707052</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.8481664583695</v>
+        <v>427.9648058707052</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2395.082247963842</v>
+        <v>2395.082247963843</v>
       </c>
       <c r="C35" t="n">
-        <v>2026.11973102343</v>
+        <v>2026.119731023431</v>
       </c>
       <c r="D35" t="n">
-        <v>1667.85403241668</v>
+        <v>1667.854032416681</v>
       </c>
       <c r="E35" t="n">
-        <v>1282.065779818435</v>
+        <v>1282.065779818437</v>
       </c>
       <c r="F35" t="n">
-        <v>871.0798750288277</v>
+        <v>871.0798750288291</v>
       </c>
       <c r="G35" t="n">
-        <v>455.6012047338692</v>
+        <v>455.6012047338693</v>
       </c>
       <c r="H35" t="n">
         <v>153.8574023343126</v>
       </c>
       <c r="I35" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="J35" t="n">
         <v>418.6931557933336</v>
@@ -6944,43 +6944,43 @@
         <v>1824.461962184263</v>
       </c>
       <c r="M35" t="n">
-        <v>2288.084605878934</v>
+        <v>2733.103004036838</v>
       </c>
       <c r="N35" t="n">
-        <v>2826.448503323671</v>
+        <v>3641.814810355736</v>
       </c>
       <c r="O35" t="n">
-        <v>3639.331656166883</v>
+        <v>4077.705783748831</v>
       </c>
       <c r="P35" t="n">
-        <v>4295.434237494615</v>
+        <v>4415.227643986796</v>
       </c>
       <c r="Q35" t="n">
-        <v>4710.918192247195</v>
+        <v>4775.977447921449</v>
       </c>
       <c r="R35" t="n">
-        <v>4809.985081406487</v>
+        <v>4809.985081406488</v>
       </c>
       <c r="S35" t="n">
         <v>4690.437671494336</v>
       </c>
       <c r="T35" t="n">
-        <v>4482.681695215901</v>
+        <v>4482.681695215902</v>
       </c>
       <c r="U35" t="n">
-        <v>4229.11872087854</v>
+        <v>4229.118720878541</v>
       </c>
       <c r="V35" t="n">
-        <v>3898.05583353497</v>
+        <v>3898.055833534971</v>
       </c>
       <c r="W35" t="n">
-        <v>3545.287178264855</v>
+        <v>3545.287178264856</v>
       </c>
       <c r="X35" t="n">
         <v>3171.821420003776</v>
       </c>
       <c r="Y35" t="n">
-        <v>2781.682088027964</v>
+        <v>2781.682088027965</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>112.4621826862337</v>
       </c>
       <c r="I36" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="J36" t="n">
-        <v>294.5812139445862</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K36" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L36" t="n">
-        <v>818.892424269764</v>
+        <v>694.0622992827591</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.193900949741</v>
+        <v>1087.363775962736</v>
       </c>
       <c r="N36" t="n">
-        <v>1630.313542328114</v>
+        <v>1505.48341734111</v>
       </c>
       <c r="O36" t="n">
-        <v>1990.591532688245</v>
+        <v>1865.76140770124</v>
       </c>
       <c r="P36" t="n">
-        <v>2260.41331637767</v>
+        <v>2260.669873124535</v>
       </c>
       <c r="Q36" t="n">
-        <v>2567.39696955194</v>
+        <v>2599.095908378868</v>
       </c>
       <c r="R36" t="n">
         <v>2599.095908378868</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="C37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="D37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="E37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="F37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="G37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="H37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="I37" t="n">
-        <v>96.19970162812973</v>
+        <v>96.19970162812976</v>
       </c>
       <c r="J37" t="n">
         <v>128.6960023826672</v>
@@ -7117,28 +7117,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R37" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S37" t="n">
-        <v>1585.07282080801</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T37" t="n">
-        <v>1362.527644523231</v>
+        <v>1264.504076673542</v>
       </c>
       <c r="U37" t="n">
-        <v>1073.414838574139</v>
+        <v>975.3912707244494</v>
       </c>
       <c r="V37" t="n">
-        <v>818.7303503682518</v>
+        <v>720.7067825185626</v>
       </c>
       <c r="W37" t="n">
-        <v>529.3131803312913</v>
+        <v>431.289612481602</v>
       </c>
       <c r="X37" t="n">
-        <v>301.3236294332739</v>
+        <v>431.289612481602</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.8481664583694</v>
+        <v>210.4970333380719</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1282.065779818436</v>
       </c>
       <c r="F38" t="n">
-        <v>871.0798750288286</v>
+        <v>871.0798750288288</v>
       </c>
       <c r="G38" t="n">
-        <v>455.6012047338692</v>
+        <v>455.6012047338694</v>
       </c>
       <c r="H38" t="n">
-        <v>153.8574023343126</v>
+        <v>153.8574023343128</v>
       </c>
       <c r="I38" t="n">
         <v>96.19970162812976</v>
       </c>
       <c r="J38" t="n">
-        <v>418.6931557933336</v>
+        <v>298.8997493011543</v>
       </c>
       <c r="K38" t="n">
-        <v>1022.772050030758</v>
+        <v>902.9786435385784</v>
       </c>
       <c r="L38" t="n">
-        <v>1824.461962184263</v>
+        <v>1704.668555692084</v>
       </c>
       <c r="M38" t="n">
-        <v>2669.290873262405</v>
+        <v>2613.309597544659</v>
       </c>
       <c r="N38" t="n">
-        <v>3145.029224413439</v>
+        <v>3522.021403863557</v>
       </c>
       <c r="O38" t="n">
         <v>3957.912377256651</v>
@@ -7251,28 +7251,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J39" t="n">
-        <v>294.5812139445863</v>
+        <v>294.5812139445862</v>
       </c>
       <c r="K39" t="n">
-        <v>498.4470747081547</v>
+        <v>498.4470747081546</v>
       </c>
       <c r="L39" t="n">
-        <v>818.892424269764</v>
+        <v>1027.125495875119</v>
       </c>
       <c r="M39" t="n">
-        <v>1212.193900949741</v>
+        <v>1420.426972555096</v>
       </c>
       <c r="N39" t="n">
-        <v>1630.313542328114</v>
+        <v>1838.54661393347</v>
       </c>
       <c r="O39" t="n">
-        <v>1990.591532688245</v>
+        <v>2198.8246042936</v>
       </c>
       <c r="P39" t="n">
-        <v>2260.41331637767</v>
+        <v>2468.646387983025</v>
       </c>
       <c r="Q39" t="n">
-        <v>2567.39696955194</v>
+        <v>2599.095908378868</v>
       </c>
       <c r="R39" t="n">
         <v>2599.095908378868</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.19970162812976</v>
+        <v>531.0657774725397</v>
       </c>
       <c r="C40" t="n">
-        <v>96.19970162812976</v>
+        <v>362.1295945446328</v>
       </c>
       <c r="D40" t="n">
-        <v>96.19970162812976</v>
+        <v>362.1295945446328</v>
       </c>
       <c r="E40" t="n">
-        <v>96.19970162812976</v>
+        <v>214.2165009622397</v>
       </c>
       <c r="F40" t="n">
-        <v>96.19970162812976</v>
+        <v>214.2165009622397</v>
       </c>
       <c r="G40" t="n">
-        <v>96.19970162812976</v>
+        <v>214.2165009622397</v>
       </c>
       <c r="H40" t="n">
         <v>96.19970162812976</v>
@@ -7330,16 +7330,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J40" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K40" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L40" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M40" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N40" t="n">
         <v>1232.183945975323</v>
@@ -7360,22 +7360,22 @@
         <v>1585.07282080801</v>
       </c>
       <c r="T40" t="n">
-        <v>1362.527644523231</v>
+        <v>1585.07282080801</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.731954742764</v>
+        <v>1295.960014858917</v>
       </c>
       <c r="V40" t="n">
-        <v>1016.047466536877</v>
+        <v>1041.275526653031</v>
       </c>
       <c r="W40" t="n">
-        <v>726.6302964999169</v>
+        <v>751.8583566160698</v>
       </c>
       <c r="X40" t="n">
-        <v>498.6407456018995</v>
+        <v>751.8583566160698</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.8481664583695</v>
+        <v>531.0657774725397</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2395.082247963842</v>
+        <v>2395.082247963843</v>
       </c>
       <c r="C41" t="n">
         <v>2026.119731023431</v>
       </c>
       <c r="D41" t="n">
-        <v>1667.85403241668</v>
+        <v>1667.854032416681</v>
       </c>
       <c r="E41" t="n">
         <v>1282.065779818436</v>
       </c>
       <c r="F41" t="n">
-        <v>871.0798750288285</v>
+        <v>871.0798750288288</v>
       </c>
       <c r="G41" t="n">
-        <v>455.6012047338691</v>
+        <v>455.6012047338694</v>
       </c>
       <c r="H41" t="n">
         <v>153.8574023343126</v>
@@ -7412,22 +7412,22 @@
         <v>418.6931557933336</v>
       </c>
       <c r="K41" t="n">
-        <v>801.2375605160191</v>
+        <v>705.4384538408101</v>
       </c>
       <c r="L41" t="n">
-        <v>1602.927472669524</v>
+        <v>1507.128365994315</v>
       </c>
       <c r="M41" t="n">
-        <v>2511.5685145221</v>
+        <v>2415.76940784689</v>
       </c>
       <c r="N41" t="n">
-        <v>3420.280320840999</v>
+        <v>2891.507758997925</v>
       </c>
       <c r="O41" t="n">
-        <v>4233.163473684211</v>
+        <v>3704.390911841137</v>
       </c>
       <c r="P41" t="n">
-        <v>4570.685333922175</v>
+        <v>4360.493493168869</v>
       </c>
       <c r="Q41" t="n">
         <v>4775.977447921449</v>
@@ -7439,22 +7439,22 @@
         <v>4690.437671494336</v>
       </c>
       <c r="T41" t="n">
-        <v>4482.681695215901</v>
+        <v>4482.681695215902</v>
       </c>
       <c r="U41" t="n">
-        <v>4229.11872087854</v>
+        <v>4229.118720878541</v>
       </c>
       <c r="V41" t="n">
-        <v>3898.05583353497</v>
+        <v>3898.055833534971</v>
       </c>
       <c r="W41" t="n">
-        <v>3545.287178264855</v>
+        <v>3545.287178264856</v>
       </c>
       <c r="X41" t="n">
         <v>3171.821420003776</v>
       </c>
       <c r="Y41" t="n">
-        <v>2781.682088027964</v>
+        <v>2781.682088027965</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J42" t="n">
-        <v>294.5812139445863</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K42" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L42" t="n">
-        <v>818.892424269764</v>
+        <v>1027.125495875119</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.193900949741</v>
+        <v>1420.426972555096</v>
       </c>
       <c r="N42" t="n">
-        <v>1630.313542328114</v>
+        <v>1838.54661393347</v>
       </c>
       <c r="O42" t="n">
-        <v>1990.591532688245</v>
+        <v>2198.8246042936</v>
       </c>
       <c r="P42" t="n">
-        <v>2260.669873124535</v>
+        <v>2468.646387983025</v>
       </c>
       <c r="Q42" t="n">
         <v>2599.095908378868</v>
@@ -7567,16 +7567,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J43" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K43" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L43" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M43" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N43" t="n">
         <v>1232.183945975323</v>
@@ -7591,28 +7591,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R43" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S43" t="n">
-        <v>1585.07282080801</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T43" t="n">
-        <v>1362.527644523231</v>
+        <v>1264.504076673542</v>
       </c>
       <c r="U43" t="n">
-        <v>1073.414838574139</v>
+        <v>975.3912707244494</v>
       </c>
       <c r="V43" t="n">
-        <v>1016.047466536877</v>
+        <v>720.7067825185626</v>
       </c>
       <c r="W43" t="n">
-        <v>726.6302964999169</v>
+        <v>431.289612481602</v>
       </c>
       <c r="X43" t="n">
-        <v>498.6407456018995</v>
+        <v>203.3000615835846</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.8481664583695</v>
+        <v>203.3000615835846</v>
       </c>
     </row>
     <row r="44">
@@ -7628,16 +7628,16 @@
         <v>2026.119731023431</v>
       </c>
       <c r="D44" t="n">
-        <v>1667.85403241668</v>
+        <v>1667.854032416681</v>
       </c>
       <c r="E44" t="n">
         <v>1282.065779818436</v>
       </c>
       <c r="F44" t="n">
-        <v>871.0798750288286</v>
+        <v>871.0798750288288</v>
       </c>
       <c r="G44" t="n">
-        <v>455.6012047338692</v>
+        <v>455.6012047338694</v>
       </c>
       <c r="H44" t="n">
         <v>153.8574023343126</v>
@@ -7646,25 +7646,25 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J44" t="n">
-        <v>418.6931557933336</v>
+        <v>251.2875067729806</v>
       </c>
       <c r="K44" t="n">
-        <v>701.8680915853047</v>
+        <v>855.3664010104046</v>
       </c>
       <c r="L44" t="n">
-        <v>1503.55800373881</v>
+        <v>1596.279675355622</v>
       </c>
       <c r="M44" t="n">
-        <v>2412.199045591385</v>
+        <v>2504.920717208196</v>
       </c>
       <c r="N44" t="n">
-        <v>3320.910851910284</v>
+        <v>3413.632523527095</v>
       </c>
       <c r="O44" t="n">
-        <v>4133.794004753496</v>
+        <v>3849.523496920189</v>
       </c>
       <c r="P44" t="n">
-        <v>4471.31586499146</v>
+        <v>4505.626078247922</v>
       </c>
       <c r="Q44" t="n">
         <v>4710.918192247196</v>
@@ -7725,28 +7725,28 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J45" t="n">
-        <v>294.5812139445863</v>
+        <v>169.7510889575815</v>
       </c>
       <c r="K45" t="n">
-        <v>498.4470747081547</v>
+        <v>373.6169497211499</v>
       </c>
       <c r="L45" t="n">
-        <v>818.892424269764</v>
+        <v>694.0622992827591</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.193900949741</v>
+        <v>1087.363775962736</v>
       </c>
       <c r="N45" t="n">
-        <v>1630.313542328114</v>
+        <v>1838.54661393347</v>
       </c>
       <c r="O45" t="n">
-        <v>1990.591532688245</v>
+        <v>2198.8246042936</v>
       </c>
       <c r="P45" t="n">
-        <v>2260.41331637767</v>
+        <v>2468.646387983025</v>
       </c>
       <c r="Q45" t="n">
-        <v>2567.39696955194</v>
+        <v>2599.095908378868</v>
       </c>
       <c r="R45" t="n">
         <v>2599.095908378868</v>
@@ -7804,16 +7804,16 @@
         <v>96.19970162812976</v>
       </c>
       <c r="J46" t="n">
-        <v>128.6960023826673</v>
+        <v>128.6960023826672</v>
       </c>
       <c r="K46" t="n">
-        <v>311.9342437051007</v>
+        <v>311.9342437051006</v>
       </c>
       <c r="L46" t="n">
-        <v>601.9425404823254</v>
+        <v>601.9425404823253</v>
       </c>
       <c r="M46" t="n">
-        <v>918.1047503647574</v>
+        <v>918.1047503647571</v>
       </c>
       <c r="N46" t="n">
         <v>1232.183945975323</v>
@@ -7828,28 +7828,28 @@
         <v>1779.934239359274</v>
       </c>
       <c r="R46" t="n">
-        <v>1779.934239359274</v>
+        <v>1681.910671509585</v>
       </c>
       <c r="S46" t="n">
-        <v>1585.07282080801</v>
+        <v>1487.04925295832</v>
       </c>
       <c r="T46" t="n">
-        <v>1362.527644523231</v>
+        <v>1264.504076673542</v>
       </c>
       <c r="U46" t="n">
-        <v>1073.414838574139</v>
+        <v>1049.939375599234</v>
       </c>
       <c r="V46" t="n">
-        <v>818.7303503682521</v>
+        <v>795.2548873933474</v>
       </c>
       <c r="W46" t="n">
-        <v>529.3131803312915</v>
+        <v>505.8377173563868</v>
       </c>
       <c r="X46" t="n">
-        <v>301.3236294332742</v>
+        <v>277.8481664583695</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.19970162812976</v>
+        <v>277.8481664583695</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8067,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>17.91249942647795</v>
+        <v>83.62891929946147</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8711,7 +8711,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.350183569565</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>178.3173058367947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>47.37931058098806</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>292.2261156301242</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>336.4274713054142</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9024,10 +9024,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>178.3173058367947</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>128.0076415072892</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>168.2290846380163</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>210.3364359650054</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9261,10 +9261,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>178.3173058367947</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>84.24034386869454</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>158.407768096287</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2591482291558123</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>336.4274713054143</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,10 +9498,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>13.50253968311071</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>61.64099367688422</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,19 +9644,19 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>58.02450515430144</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9726,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>126.3501835695652</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9735,10 +9735,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>178.3173058367947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>150.6706274315702</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>87.30091195826981</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9890,13 +9890,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>126.3501835695653</v>
       </c>
       <c r="Q27" t="n">
-        <v>178.3173058367952</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,16 +10109,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>34.65678106713273</v>
+        <v>119.1532309006517</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10127,10 +10127,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>178.3173058367952</v>
+        <v>17.9647026654774</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>143.9556806498503</v>
       </c>
       <c r="K32" t="n">
-        <v>93.65825415839487</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,13 +10425,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>336.4274713054144</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0.2591482291560396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>13.50253968311071</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,22 +10592,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>63.25812756939609</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>157.0279696316965</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>126.3501835695653</v>
       </c>
       <c r="Q36" t="n">
-        <v>178.3173058367952</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>48.09317427088254</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10829,13 +10829,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>385.0568357408795</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>210.3364359650058</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10920,10 +10920,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>178.3173058367952</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>100.3732009401156</v>
+        <v>3.60642652071266</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11069,16 +11069,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>336.4274713054144</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0.2591482291560396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>13.50253968311071</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>356.2706713097552</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>34.65678106713298</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11385,7 +11385,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>336.4274713054145</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>178.3173058367952</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>13.50253968311074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,10 +24610,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.5545619613214</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H28" t="n">
         <v>146.358883404438</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>97.04333217119235</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>54.09246270578529</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>15.33978953562766</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>60.17684610958258</v>
+        <v>166.2062024654831</v>
       </c>
       <c r="H31" t="n">
         <v>146.358883404438</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>222.4180968442493</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>73.80262382603675</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>66.67762178909462</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.04333217119235</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>195.3439450069393</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,16 +25546,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>166.2062024654831</v>
       </c>
       <c r="H40" t="n">
-        <v>146.358883404438</v>
+        <v>29.52225206366917</v>
       </c>
       <c r="I40" t="n">
         <v>101.7773661821365</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>97.04333217119235</v>
+        <v>97.04333217119236</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>220.3197245219311</v>
       </c>
       <c r="U40" t="n">
-        <v>195.3439450069392</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>73.80262382603698</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>97.04333217119235</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>195.3439450069392</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>97.04333217119235</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>73.80262382603709</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>15.51196482500185</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675530.7792627072</v>
+        <v>675530.7792627071</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>675530.7792627073</v>
+        <v>675530.7792627072</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710692</v>
@@ -26320,40 +26320,40 @@
         <v>779989.6813710694</v>
       </c>
       <c r="E2" t="n">
-        <v>779989.6813710701</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="F2" t="n">
+        <v>779989.6813710706</v>
+      </c>
+      <c r="G2" t="n">
+        <v>779989.6813710706</v>
+      </c>
+      <c r="H2" t="n">
         <v>779989.6813710703</v>
       </c>
-      <c r="G2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="H2" t="n">
-        <v>779989.6813710702</v>
-      </c>
       <c r="I2" t="n">
-        <v>779989.6813710701</v>
+        <v>779989.6813710704</v>
       </c>
       <c r="J2" t="n">
+        <v>750020.2889954922</v>
+      </c>
+      <c r="K2" t="n">
+        <v>750020.288995492</v>
+      </c>
+      <c r="L2" t="n">
+        <v>750020.288995492</v>
+      </c>
+      <c r="M2" t="n">
         <v>750020.2889954923</v>
       </c>
-      <c r="K2" t="n">
+      <c r="N2" t="n">
         <v>750020.2889954922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>750020.2889954923</v>
-      </c>
-      <c r="M2" t="n">
-        <v>750020.2889954922</v>
-      </c>
-      <c r="N2" t="n">
-        <v>750020.2889954923</v>
       </c>
       <c r="O2" t="n">
         <v>750020.2889954922</v>
       </c>
       <c r="P2" t="n">
-        <v>750020.2889954923</v>
+        <v>750020.2889954924</v>
       </c>
     </row>
     <row r="3">
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186498.7055219567</v>
+        <v>186498.7055219568</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,16 +26424,16 @@
         <v>354433.2672769093</v>
       </c>
       <c r="E4" t="n">
+        <v>85227.72456210305</v>
+      </c>
+      <c r="F4" t="n">
+        <v>85227.72456210305</v>
+      </c>
+      <c r="G4" t="n">
         <v>85227.72456210306</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>85227.72456210306</v>
-      </c>
-      <c r="G4" t="n">
-        <v>85227.72456210303</v>
-      </c>
-      <c r="H4" t="n">
-        <v>85227.72456210305</v>
       </c>
       <c r="I4" t="n">
         <v>85227.72456210305</v>
@@ -26442,22 +26442,22 @@
         <v>44725.276340007</v>
       </c>
       <c r="K4" t="n">
-        <v>44725.276340007</v>
+        <v>44725.27634000698</v>
       </c>
       <c r="L4" t="n">
-        <v>44725.27634000699</v>
+        <v>44725.27634000697</v>
       </c>
       <c r="M4" t="n">
-        <v>44725.27634000697</v>
+        <v>44725.27634000702</v>
       </c>
       <c r="N4" t="n">
-        <v>44725.27634000697</v>
+        <v>44725.27634000701</v>
       </c>
       <c r="O4" t="n">
         <v>44725.27634000701</v>
       </c>
       <c r="P4" t="n">
-        <v>44725.276340007</v>
+        <v>44725.27634000701</v>
       </c>
     </row>
     <row r="5">
@@ -26497,10 +26497,10 @@
         <v>94688.10334900588</v>
       </c>
       <c r="L5" t="n">
+        <v>94688.10334900586</v>
+      </c>
+      <c r="M5" t="n">
         <v>94688.10334900588</v>
-      </c>
-      <c r="M5" t="n">
-        <v>94688.10334900586</v>
       </c>
       <c r="N5" t="n">
         <v>94688.10334900588</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296505.7137988507</v>
+        <v>296505.7137988508</v>
       </c>
       <c r="C6" t="n">
         <v>377275.1453303982</v>
@@ -26528,40 +26528,40 @@
         <v>377275.1453303984</v>
       </c>
       <c r="E6" t="n">
-        <v>-454321.0936537024</v>
+        <v>-454321.0936537036</v>
       </c>
       <c r="F6" t="n">
+        <v>608395.5066659455</v>
+      </c>
+      <c r="G6" t="n">
+        <v>608395.5066659455</v>
+      </c>
+      <c r="H6" t="n">
         <v>608395.5066659453</v>
       </c>
-      <c r="G6" t="n">
-        <v>608395.5066659444</v>
-      </c>
-      <c r="H6" t="n">
-        <v>608395.5066659452</v>
-      </c>
       <c r="I6" t="n">
-        <v>608395.5066659451</v>
+        <v>608395.5066659454</v>
       </c>
       <c r="J6" t="n">
-        <v>491789.4987159921</v>
+        <v>491710.6318939509</v>
       </c>
       <c r="K6" t="n">
-        <v>610606.9093064793</v>
+        <v>610528.0424844382</v>
       </c>
       <c r="L6" t="n">
-        <v>610606.9093064794</v>
+        <v>610528.0424844382</v>
       </c>
       <c r="M6" t="n">
-        <v>424108.2037845227</v>
+        <v>424029.3369624816</v>
       </c>
       <c r="N6" t="n">
-        <v>610606.9093064794</v>
+        <v>610528.0424844383</v>
       </c>
       <c r="O6" t="n">
-        <v>610606.9093064793</v>
+        <v>610528.0424844383</v>
       </c>
       <c r="P6" t="n">
-        <v>610606.9093064794</v>
+        <v>610528.0424844385</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F2" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G2" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H2" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I2" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="F3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="G3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="H3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="I3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="J3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="K3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="L3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="M3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="N3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="O3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="P3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
     </row>
     <row r="4">
@@ -26799,7 +26799,7 @@
         <v>989.3919454239295</v>
       </c>
       <c r="F4" t="n">
-        <v>989.3919454239294</v>
+        <v>989.3919454239295</v>
       </c>
       <c r="G4" t="n">
         <v>989.3919454239295</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>989.7399133773973</v>
+        <v>989.7399133773972</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>748.3776565462703</v>
+        <v>748.3776565462705</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>335.8613673013232</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>323.4352480556668</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27470,16 +27470,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>97.78184089914018</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>160.5458335890089</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27521,10 +27521,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27594,10 +27594,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>164.5764392340873</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>366.3997666085763</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27670,16 +27670,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,10 +27695,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>11.54007894861604</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,13 +27710,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,19 +27740,19 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>27.49802345040032</v>
       </c>
     </row>
     <row r="7">
@@ -27789,7 +27789,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>201.2949868753087</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.3243572470091838</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>37.29433897259889</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.84673021034784</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,7 +27986,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="L13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="M13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="N13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="O13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="P13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="R13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="S13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y13" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y14" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="L16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="M16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="N16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="O16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="P16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Q16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="R16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="S16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y16" t="n">
-        <v>55.13435094529256</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529245</v>
       </c>
       <c r="T17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y17" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="L19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="M19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="N19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="O19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="P19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="R19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="S19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y19" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V20" t="n">
-        <v>55.13435094529291</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y20" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529302</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="L22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="M22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="N22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="O22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="P22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Q22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="R22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="S22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y22" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529245</v>
       </c>
       <c r="T23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X23" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.13435094529302</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="C25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="D25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="E25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="F25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="G25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="H25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="I25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="J25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="K25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="L25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="M25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="N25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="O25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="P25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Q25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="R25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="S25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="T25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="U25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="V25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="W25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="X25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
       <c r="Y25" t="n">
-        <v>55.13435094529254</v>
+        <v>55.13435094529253</v>
       </c>
     </row>
     <row r="26">
@@ -31759,34 +31759,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J11" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K11" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L11" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M11" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N11" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O11" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P11" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q11" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R11" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S11" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T11" t="n">
         <v>17.41743304848062</v>
@@ -31844,7 +31844,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L12" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M12" t="n">
         <v>539.4082527906814</v>
@@ -31853,13 +31853,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O12" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P12" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q12" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R12" t="n">
         <v>132.1769642808532</v>
@@ -31941,16 +31941,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R13" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S13" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T13" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,34 +31996,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J14" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K14" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L14" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M14" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N14" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O14" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P14" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q14" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R14" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S14" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T14" t="n">
         <v>17.41743304848062</v>
@@ -32081,7 +32081,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L15" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M15" t="n">
         <v>539.4082527906814</v>
@@ -32090,13 +32090,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O15" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P15" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q15" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R15" t="n">
         <v>132.1769642808532</v>
@@ -32178,16 +32178,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R16" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S16" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T16" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32233,34 +32233,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J17" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K17" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L17" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M17" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N17" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O17" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P17" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q17" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R17" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S17" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T17" t="n">
         <v>17.41743304848062</v>
@@ -32318,7 +32318,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L18" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M18" t="n">
         <v>539.4082527906814</v>
@@ -32327,13 +32327,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O18" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P18" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q18" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R18" t="n">
         <v>132.1769642808532</v>
@@ -32415,16 +32415,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R19" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S19" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T19" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U19" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,34 +32470,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J20" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K20" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L20" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M20" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N20" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O20" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P20" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q20" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R20" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S20" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T20" t="n">
         <v>17.41743304848062</v>
@@ -32555,7 +32555,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L21" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M21" t="n">
         <v>539.4082527906814</v>
@@ -32564,13 +32564,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O21" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P21" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q21" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R21" t="n">
         <v>132.1769642808532</v>
@@ -32652,16 +32652,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R22" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S22" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T22" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U22" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32707,34 +32707,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J23" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K23" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L23" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M23" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N23" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O23" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P23" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q23" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R23" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S23" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T23" t="n">
         <v>17.41743304848062</v>
@@ -32792,7 +32792,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L24" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M24" t="n">
         <v>539.4082527906814</v>
@@ -32801,13 +32801,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O24" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P24" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q24" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R24" t="n">
         <v>132.1769642808532</v>
@@ -32889,16 +32889,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R25" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S25" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T25" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U25" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,34 +32944,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J26" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K26" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L26" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M26" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N26" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O26" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P26" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q26" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R26" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S26" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T26" t="n">
         <v>17.41743304848062</v>
@@ -33029,7 +33029,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L27" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M27" t="n">
         <v>539.4082527906814</v>
@@ -33038,13 +33038,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O27" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P27" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q27" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R27" t="n">
         <v>132.1769642808532</v>
@@ -33126,16 +33126,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R28" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S28" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T28" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U28" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33181,34 +33181,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J29" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K29" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L29" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M29" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N29" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O29" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P29" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q29" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R29" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S29" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T29" t="n">
         <v>17.41743304848062</v>
@@ -33266,7 +33266,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L30" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M30" t="n">
         <v>539.4082527906814</v>
@@ -33275,13 +33275,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O30" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P30" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q30" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R30" t="n">
         <v>132.1769642808532</v>
@@ -33363,16 +33363,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R31" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S31" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T31" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U31" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33418,34 +33418,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J32" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K32" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L32" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M32" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N32" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O32" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P32" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q32" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R32" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S32" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T32" t="n">
         <v>17.41743304848062</v>
@@ -33503,7 +33503,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L33" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M33" t="n">
         <v>539.4082527906814</v>
@@ -33512,13 +33512,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O33" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P33" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q33" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R33" t="n">
         <v>132.1769642808532</v>
@@ -33600,16 +33600,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R34" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S34" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T34" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U34" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33655,34 +33655,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J35" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K35" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L35" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M35" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N35" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O35" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P35" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q35" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R35" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S35" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T35" t="n">
         <v>17.41743304848062</v>
@@ -33740,7 +33740,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L36" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M36" t="n">
         <v>539.4082527906814</v>
@@ -33749,13 +33749,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O36" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P36" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q36" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R36" t="n">
         <v>132.1769642808532</v>
@@ -33837,16 +33837,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R37" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S37" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T37" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U37" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33892,34 +33892,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J38" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K38" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L38" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M38" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N38" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O38" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P38" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q38" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R38" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S38" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T38" t="n">
         <v>17.41743304848062</v>
@@ -33977,7 +33977,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L39" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M39" t="n">
         <v>539.4082527906814</v>
@@ -33986,13 +33986,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O39" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P39" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q39" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R39" t="n">
         <v>132.1769642808532</v>
@@ -34074,16 +34074,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R40" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S40" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T40" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U40" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,34 +34129,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J41" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K41" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L41" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M41" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N41" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O41" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P41" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q41" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R41" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S41" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T41" t="n">
         <v>17.41743304848062</v>
@@ -34214,7 +34214,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L42" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M42" t="n">
         <v>539.4082527906814</v>
@@ -34223,13 +34223,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O42" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P42" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q42" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R42" t="n">
         <v>132.1769642808532</v>
@@ -34311,16 +34311,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R43" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S43" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T43" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U43" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,34 +34366,34 @@
         <v>153.3947658712849</v>
       </c>
       <c r="J44" t="n">
-        <v>337.7002531578488</v>
+        <v>337.7002531578487</v>
       </c>
       <c r="K44" t="n">
-        <v>506.1251397237392</v>
+        <v>506.1251397237391</v>
       </c>
       <c r="L44" t="n">
         <v>627.8929904735825</v>
       </c>
       <c r="M44" t="n">
-        <v>698.6519339289605</v>
+        <v>698.6519339289604</v>
       </c>
       <c r="N44" t="n">
-        <v>709.95685263804</v>
+        <v>709.9568526380399</v>
       </c>
       <c r="O44" t="n">
-        <v>670.3921239399637</v>
+        <v>670.3921239399635</v>
       </c>
       <c r="P44" t="n">
-        <v>572.1641677128099</v>
+        <v>572.1641677128098</v>
       </c>
       <c r="Q44" t="n">
-        <v>429.6714615908881</v>
+        <v>429.671461590888</v>
       </c>
       <c r="R44" t="n">
-        <v>249.9366827485144</v>
+        <v>249.9366827485143</v>
       </c>
       <c r="S44" t="n">
-        <v>90.66813377321587</v>
+        <v>90.66813377321586</v>
       </c>
       <c r="T44" t="n">
         <v>17.41743304848062</v>
@@ -34451,7 +34451,7 @@
         <v>343.7665508567513</v>
       </c>
       <c r="L45" t="n">
-        <v>462.236551054227</v>
+        <v>462.2365510542269</v>
       </c>
       <c r="M45" t="n">
         <v>539.4082527906814</v>
@@ -34460,13 +34460,13 @@
         <v>553.6847841827008</v>
       </c>
       <c r="O45" t="n">
-        <v>506.5134064243743</v>
+        <v>506.5134064243742</v>
       </c>
       <c r="P45" t="n">
         <v>406.5216636662748</v>
       </c>
       <c r="Q45" t="n">
-        <v>271.7489664050545</v>
+        <v>271.7489664050544</v>
       </c>
       <c r="R45" t="n">
         <v>132.1769642808532</v>
@@ -34548,16 +34548,16 @@
         <v>149.450726919987</v>
       </c>
       <c r="R46" t="n">
-        <v>80.25005920597714</v>
+        <v>80.25005920597712</v>
       </c>
       <c r="S46" t="n">
-        <v>31.10379367122082</v>
+        <v>31.10379367122081</v>
       </c>
       <c r="T46" t="n">
-        <v>7.625864906350436</v>
+        <v>7.625864906350435</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09735146688958017</v>
+        <v>0.09735146688958016</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34711,7 +34711,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>325.7509638032363</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K11" t="n">
-        <v>610.1807012499233</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L11" t="n">
         <v>392.1265755035952</v>
       </c>
       <c r="M11" t="n">
-        <v>468.3057007016878</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N11" t="n">
-        <v>480.5437890414491</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O11" t="n">
-        <v>458.2064119447548</v>
+        <v>523.9228318177383</v>
       </c>
       <c r="P11" t="n">
-        <v>662.7298801290231</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q11" t="n">
-        <v>419.6807623763433</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R11" t="n">
-        <v>100.0675648073647</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K12" t="n">
-        <v>205.9251118823923</v>
+        <v>332.2752954519573</v>
       </c>
       <c r="L12" t="n">
         <v>323.6821712743528</v>
@@ -35501,16 +35501,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O12" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P12" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q12" t="n">
-        <v>310.0844981558277</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R12" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.95889716199713</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K13" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L13" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M13" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N13" t="n">
         <v>372.3860636832381</v>
       </c>
       <c r="O13" t="n">
-        <v>331.9895800591975</v>
+        <v>331.9895800591974</v>
       </c>
       <c r="P13" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.4230346135852</v>
+        <v>118.4230346135851</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>204.0336592121506</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K14" t="n">
-        <v>610.1807012499233</v>
+        <v>578.2614043088828</v>
       </c>
       <c r="L14" t="n">
-        <v>809.7877900540457</v>
+        <v>392.1265755035952</v>
       </c>
       <c r="M14" t="n">
-        <v>468.3057007016878</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N14" t="n">
-        <v>480.5437890414491</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O14" t="n">
-        <v>440.2939125182769</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P14" t="n">
-        <v>662.7298801290231</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q14" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R14" t="n">
-        <v>34.35114493438223</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K15" t="n">
         <v>205.9251118823923</v>
       </c>
       <c r="L15" t="n">
-        <v>323.6821712743528</v>
+        <v>660.109642579767</v>
       </c>
       <c r="M15" t="n">
         <v>397.2742188686631</v>
@@ -35738,16 +35738,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O15" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P15" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q15" t="n">
-        <v>310.0844981558277</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R15" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.95889716199713</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K16" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L16" t="n">
         <v>348.0720244576407</v>
       </c>
       <c r="M16" t="n">
-        <v>374.4901185033046</v>
+        <v>374.4901185033045</v>
       </c>
       <c r="N16" t="n">
         <v>372.3860636832381</v>
       </c>
       <c r="O16" t="n">
-        <v>331.9895800591975</v>
+        <v>331.9895800591974</v>
       </c>
       <c r="P16" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.4230346135852</v>
+        <v>118.4230346135851</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>284.6619901384518</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K17" t="n">
-        <v>610.1807012499233</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L17" t="n">
         <v>392.1265755035952</v>
       </c>
       <c r="M17" t="n">
-        <v>468.3057007016878</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N17" t="n">
-        <v>480.5437890414491</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O17" t="n">
-        <v>821.0940937810223</v>
+        <v>608.5229971562931</v>
       </c>
       <c r="P17" t="n">
-        <v>340.9311719575404</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q17" t="n">
-        <v>419.6807623763433</v>
+        <v>207.3657717164386</v>
       </c>
       <c r="R17" t="n">
-        <v>100.0675648073647</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>200.3853659762187</v>
       </c>
       <c r="K18" t="n">
-        <v>205.9251118823923</v>
+        <v>416.2615478473977</v>
       </c>
       <c r="L18" t="n">
         <v>323.6821712743528</v>
@@ -35975,16 +35975,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O18" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P18" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q18" t="n">
-        <v>310.0844981558277</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R18" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K19" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L19" t="n">
         <v>348.0720244576407</v>
@@ -36054,13 +36054,13 @@
         <v>372.3860636832381</v>
       </c>
       <c r="O19" t="n">
-        <v>331.9895800591975</v>
+        <v>331.9895800591974</v>
       </c>
       <c r="P19" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.4230346135852</v>
+        <v>118.4230346135851</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>156.6543486311625</v>
       </c>
       <c r="K20" t="n">
-        <v>286.0352886787586</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L20" t="n">
-        <v>392.1265755035952</v>
+        <v>476.3669193722898</v>
       </c>
       <c r="M20" t="n">
-        <v>917.8192341945203</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N20" t="n">
-        <v>917.8907134534332</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O20" t="n">
-        <v>440.2939125182769</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P20" t="n">
-        <v>499.3389400538274</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q20" t="n">
         <v>207.3657717164386</v>
       </c>
       <c r="R20" t="n">
-        <v>100.0675648073647</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K21" t="n">
-        <v>206.1842601115482</v>
+        <v>205.9251118823923</v>
       </c>
       <c r="L21" t="n">
         <v>323.6821712743528</v>
       </c>
       <c r="M21" t="n">
-        <v>397.2742188686631</v>
+        <v>733.7016901740774</v>
       </c>
       <c r="N21" t="n">
         <v>422.3430720993675</v>
       </c>
       <c r="O21" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P21" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q21" t="n">
-        <v>341.8444800548821</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K22" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L22" t="n">
         <v>348.0720244576407</v>
@@ -36291,13 +36291,13 @@
         <v>372.3860636832381</v>
       </c>
       <c r="O22" t="n">
-        <v>331.9895800591975</v>
+        <v>331.9895800591974</v>
       </c>
       <c r="P22" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.4230346135852</v>
+        <v>118.4230346135851</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>218.2953423080467</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K23" t="n">
-        <v>286.0352886787586</v>
+        <v>286.0352886787585</v>
       </c>
       <c r="L23" t="n">
         <v>392.1265755035952</v>
       </c>
       <c r="M23" t="n">
-        <v>917.8192341945203</v>
+        <v>526.3302058559891</v>
       </c>
       <c r="N23" t="n">
-        <v>480.5437890414491</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O23" t="n">
-        <v>440.2939125182769</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P23" t="n">
-        <v>662.7298801290231</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q23" t="n">
-        <v>419.6807623763433</v>
+        <v>207.3657717164386</v>
       </c>
       <c r="R23" t="n">
-        <v>100.0675648073647</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K24" t="n">
         <v>205.9251118823923</v>
@@ -36446,19 +36446,19 @@
         <v>397.2742188686631</v>
       </c>
       <c r="N24" t="n">
-        <v>422.3430720993675</v>
+        <v>548.6932556689327</v>
       </c>
       <c r="O24" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P24" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q24" t="n">
-        <v>310.0844981558277</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R24" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.9588971619971</v>
+        <v>87.95889716199707</v>
       </c>
       <c r="K25" t="n">
-        <v>240.2234835942152</v>
+        <v>240.2234835942151</v>
       </c>
       <c r="L25" t="n">
         <v>348.0720244576407</v>
@@ -36528,13 +36528,13 @@
         <v>372.3860636832381</v>
       </c>
       <c r="O25" t="n">
-        <v>331.9895800591975</v>
+        <v>331.9895800591974</v>
       </c>
       <c r="P25" t="n">
-        <v>268.2735627933481</v>
+        <v>268.273562793348</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.4230346135852</v>
+        <v>118.4230346135851</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>307.3249760627327</v>
+        <v>156.6543486311625</v>
       </c>
       <c r="K26" t="n">
-        <v>610.1807012499233</v>
+        <v>286.0352886787585</v>
       </c>
       <c r="L26" t="n">
-        <v>392.1265755035952</v>
+        <v>479.427487461865</v>
       </c>
       <c r="M26" t="n">
-        <v>917.8192341945203</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N26" t="n">
-        <v>917.8907134534332</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O26" t="n">
-        <v>821.0940937810223</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P26" t="n">
-        <v>340.9311719575404</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q26" t="n">
-        <v>419.6807623763433</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R26" t="n">
-        <v>34.35114493438223</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K27" t="n">
         <v>205.9251118823923</v>
@@ -36686,16 +36686,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O27" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P27" t="n">
-        <v>272.5472562519446</v>
+        <v>398.8974398215098</v>
       </c>
       <c r="Q27" t="n">
-        <v>310.0844981558282</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R27" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K28" t="n">
         <v>185.0891326489226</v>
@@ -36765,13 +36765,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O28" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P28" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q28" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>325.7509638032363</v>
+        <v>156.6543486311625</v>
       </c>
       <c r="K29" t="n">
-        <v>320.6920697458913</v>
+        <v>405.1885195794103</v>
       </c>
       <c r="L29" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M29" t="n">
-        <v>917.8192341945203</v>
+        <v>468.3057007016877</v>
       </c>
       <c r="N29" t="n">
-        <v>917.8907134534332</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O29" t="n">
-        <v>821.0940937810223</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P29" t="n">
-        <v>340.9311719575404</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q29" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R29" t="n">
-        <v>100.0675648073647</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K30" t="n">
         <v>205.9251118823923</v>
@@ -36923,16 +36923,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O30" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P30" t="n">
-        <v>272.5472562519446</v>
+        <v>591.0100248918817</v>
       </c>
       <c r="Q30" t="n">
-        <v>310.0844981558282</v>
+        <v>149.7318949845103</v>
       </c>
       <c r="R30" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K31" t="n">
         <v>185.0891326489226</v>
@@ -37002,13 +37002,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O31" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P31" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q31" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>325.7509638032363</v>
+        <v>300.6100292810127</v>
       </c>
       <c r="K32" t="n">
-        <v>379.6935428371535</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L32" t="n">
-        <v>809.7877900540457</v>
+        <v>392.1265755035952</v>
       </c>
       <c r="M32" t="n">
-        <v>917.8192341945203</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N32" t="n">
-        <v>917.8907134534332</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O32" t="n">
-        <v>440.2939125182769</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P32" t="n">
-        <v>662.7298801290231</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q32" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R32" t="n">
-        <v>100.0675648073647</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K33" t="n">
         <v>205.9251118823923</v>
       </c>
       <c r="L33" t="n">
-        <v>323.6821712743528</v>
+        <v>660.1096425797672</v>
       </c>
       <c r="M33" t="n">
         <v>397.2742188686631</v>
@@ -37160,13 +37160,13 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O33" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P33" t="n">
-        <v>272.8064044811006</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q33" t="n">
-        <v>341.8444800548821</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K34" t="n">
         <v>185.0891326489226</v>
@@ -37239,13 +37239,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O34" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P34" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q34" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>325.7509638032363</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K35" t="n">
-        <v>610.1807012499233</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L35" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M35" t="n">
-        <v>468.3057007016878</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N35" t="n">
-        <v>543.8019166108452</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O35" t="n">
-        <v>821.0940937810223</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P35" t="n">
-        <v>662.7298801290231</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q35" t="n">
-        <v>419.6807623763433</v>
+        <v>364.3937413481351</v>
       </c>
       <c r="R35" t="n">
-        <v>100.0675648073647</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K36" t="n">
         <v>205.9251118823923</v>
@@ -37397,16 +37397,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O36" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P36" t="n">
-        <v>272.5472562519446</v>
+        <v>398.8974398215098</v>
       </c>
       <c r="Q36" t="n">
-        <v>310.0844981558282</v>
+        <v>341.844480054882</v>
       </c>
       <c r="R36" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K37" t="n">
         <v>185.0891326489226</v>
@@ -37476,13 +37476,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O37" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P37" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q37" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>325.7509638032363</v>
+        <v>204.747522902045</v>
       </c>
       <c r="K38" t="n">
-        <v>610.1807012499233</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L38" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M38" t="n">
-        <v>853.3625364425673</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N38" t="n">
-        <v>480.5437890414491</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O38" t="n">
-        <v>821.0940937810223</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P38" t="n">
-        <v>340.9311719575404</v>
+        <v>340.9311719575402</v>
       </c>
       <c r="Q38" t="n">
-        <v>419.6807623763433</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R38" t="n">
-        <v>100.0675648073647</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>205.9251118823923</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6821712743528</v>
+        <v>534.0186072393585</v>
       </c>
       <c r="M39" t="n">
         <v>397.2742188686631</v>
@@ -37634,16 +37634,16 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O39" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P39" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q39" t="n">
-        <v>310.0844981558282</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R39" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K40" t="n">
         <v>185.0891326489226</v>
@@ -37713,13 +37713,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O40" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P40" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q40" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>325.7509638032363</v>
+        <v>325.7509638032362</v>
       </c>
       <c r="K41" t="n">
-        <v>386.4084896188742</v>
+        <v>289.6417151994712</v>
       </c>
       <c r="L41" t="n">
         <v>809.7877900540457</v>
       </c>
       <c r="M41" t="n">
-        <v>917.8192341945203</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N41" t="n">
-        <v>917.8907134534332</v>
+        <v>480.543789041449</v>
       </c>
       <c r="O41" t="n">
-        <v>821.0940937810223</v>
+        <v>821.0940937810221</v>
       </c>
       <c r="P41" t="n">
-        <v>340.9311719575404</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q41" t="n">
-        <v>207.3657717164386</v>
+        <v>419.6807623763432</v>
       </c>
       <c r="R41" t="n">
-        <v>34.35114493438223</v>
+        <v>34.35114493438218</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K42" t="n">
         <v>205.9251118823923</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6821712743528</v>
+        <v>660.1096425797672</v>
       </c>
       <c r="M42" t="n">
         <v>397.2742188686631</v>
@@ -37871,13 +37871,13 @@
         <v>422.3430720993675</v>
       </c>
       <c r="O42" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P42" t="n">
-        <v>272.8064044811006</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q42" t="n">
-        <v>341.8444800548821</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K43" t="n">
         <v>185.0891326489226</v>
@@ -37950,13 +37950,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O43" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P43" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>325.7509638032363</v>
+        <v>156.6543486311625</v>
       </c>
       <c r="K44" t="n">
-        <v>286.0352886787586</v>
+        <v>610.1807012499232</v>
       </c>
       <c r="L44" t="n">
-        <v>809.7877900540457</v>
+        <v>748.3972468133504</v>
       </c>
       <c r="M44" t="n">
-        <v>917.8192341945203</v>
+        <v>917.8192341945202</v>
       </c>
       <c r="N44" t="n">
-        <v>917.8907134534332</v>
+        <v>917.8907134534331</v>
       </c>
       <c r="O44" t="n">
-        <v>821.0940937810223</v>
+        <v>440.2939125182768</v>
       </c>
       <c r="P44" t="n">
-        <v>340.9311719575404</v>
+        <v>662.7298801290228</v>
       </c>
       <c r="Q44" t="n">
-        <v>242.0225527835716</v>
+        <v>207.3657717164386</v>
       </c>
       <c r="R44" t="n">
-        <v>100.0675648073647</v>
+        <v>100.0675648073646</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>200.3853659762187</v>
+        <v>74.29433063580987</v>
       </c>
       <c r="K45" t="n">
         <v>205.9251118823923</v>
@@ -38105,19 +38105,19 @@
         <v>397.2742188686631</v>
       </c>
       <c r="N45" t="n">
-        <v>422.3430720993675</v>
+        <v>758.7705434047821</v>
       </c>
       <c r="O45" t="n">
-        <v>363.9171619799299</v>
+        <v>363.9171619799298</v>
       </c>
       <c r="P45" t="n">
-        <v>272.5472562519446</v>
+        <v>272.5472562519445</v>
       </c>
       <c r="Q45" t="n">
-        <v>310.0844981558282</v>
+        <v>131.7671923190329</v>
       </c>
       <c r="R45" t="n">
-        <v>32.01913012821011</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>32.82454621670456</v>
+        <v>32.82454621670455</v>
       </c>
       <c r="K46" t="n">
         <v>185.0891326489226</v>
@@ -38187,13 +38187,13 @@
         <v>317.2517127379456</v>
       </c>
       <c r="O46" t="n">
-        <v>276.8552291139049</v>
+        <v>276.8552291139048</v>
       </c>
       <c r="P46" t="n">
-        <v>213.1392118480556</v>
+        <v>213.1392118480555</v>
       </c>
       <c r="Q46" t="n">
-        <v>63.28868366829262</v>
+        <v>63.28868366829259</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
